--- a/xlsx/Linux虚拟服务器_intext.xlsx
+++ b/xlsx/Linux虚拟服务器_intext.xlsx
@@ -29,7 +29,7 @@
     <t>软件设计</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Linux虚拟服务器</t>
+    <t>政策_政策_维基百科_Linux虚拟服务器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E7%A8%8B%E8%AF%AD%E8%A8%80</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BD%AF%E4%BB%B6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/Linux%E5%85%A7%E6%A0%B8</t>
   </si>
   <si>
-    <t>Linux內核</t>
+    <t>Linux内核</t>
   </si>
 </sst>
 </file>
